--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lgi3-Adam23.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lgi3-Adam23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,25 +79,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Lgi3</t>
+  </si>
+  <si>
+    <t>Adam23</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Lgi3</t>
-  </si>
-  <si>
-    <t>Adam23</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -549,40 +546,40 @@
         <v>1.719189</v>
       </c>
       <c r="I2">
-        <v>0.8738620456188184</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9122171124577967</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.056827</v>
+        <v>0.4562695</v>
       </c>
       <c r="N2">
-        <v>0.113654</v>
+        <v>0.912539</v>
       </c>
       <c r="O2">
-        <v>0.002198372771388981</v>
+        <v>0.01609359429837405</v>
       </c>
       <c r="P2">
-        <v>0.001552001951971484</v>
+        <v>0.01172153108534722</v>
       </c>
       <c r="Q2">
-        <v>0.032565451101</v>
+        <v>0.2614711684785</v>
       </c>
       <c r="R2">
-        <v>0.195392706606</v>
+        <v>1.568827010871</v>
       </c>
       <c r="S2">
-        <v>0.001921074527038686</v>
+        <v>0.01609359429837405</v>
       </c>
       <c r="T2">
-        <v>0.001415762739156291</v>
+        <v>0.01172153108534722</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +608,10 @@
         <v>1.719189</v>
       </c>
       <c r="I3">
-        <v>0.8738620456188184</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9122171124577967</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +626,10 @@
         <v>63.325338</v>
       </c>
       <c r="O3">
-        <v>0.8165877651949714</v>
+        <v>0.7445397209174328</v>
       </c>
       <c r="P3">
-        <v>0.864739016534869</v>
+        <v>0.8134117203287967</v>
       </c>
       <c r="Q3">
         <v>12.096469390098</v>
@@ -641,10 +638,10 @@
         <v>108.868224510882</v>
       </c>
       <c r="S3">
-        <v>0.7135850549205771</v>
+        <v>0.7445397209174328</v>
       </c>
       <c r="T3">
-        <v>0.788829728693033</v>
+        <v>0.8134117203287967</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -673,40 +670,40 @@
         <v>1.719189</v>
       </c>
       <c r="I4">
-        <v>0.8738620456188184</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9122171124577967</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.04350366666666667</v>
+        <v>0.006762666666666667</v>
       </c>
       <c r="N4">
-        <v>0.130511</v>
+        <v>0.020288</v>
       </c>
       <c r="O4">
-        <v>0.001682954867502814</v>
+        <v>0.0002385336160064851</v>
       </c>
       <c r="P4">
-        <v>0.001782192679129202</v>
+        <v>0.0002605986403425218</v>
       </c>
       <c r="Q4">
-        <v>0.024930341731</v>
+        <v>0.003875434048</v>
       </c>
       <c r="R4">
-        <v>0.224373075579</v>
+        <v>0.034878906432</v>
       </c>
       <c r="S4">
-        <v>0.001470670383200157</v>
+        <v>0.0002385336160064851</v>
       </c>
       <c r="T4">
-        <v>0.001625746659598666</v>
+        <v>0.0002605986403425218</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,10 +732,10 @@
         <v>1.719189</v>
       </c>
       <c r="I5">
-        <v>0.8738620456188184</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9122171124577967</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.2613175</v>
+        <v>6.745213</v>
       </c>
       <c r="N5">
-        <v>8.522634999999999</v>
+        <v>13.490426</v>
       </c>
       <c r="O5">
-        <v>0.1648505879642311</v>
+        <v>0.2379179881147404</v>
       </c>
       <c r="P5">
-        <v>0.1163808238684119</v>
+        <v>0.1732840434365834</v>
       </c>
       <c r="Q5">
-        <v>2.4420033905025</v>
+        <v>3.865431997419</v>
       </c>
       <c r="R5">
-        <v>14.652020343015</v>
+        <v>23.192591984514</v>
       </c>
       <c r="S5">
-        <v>0.1440566720198879</v>
+        <v>0.2379179881147404</v>
       </c>
       <c r="T5">
-        <v>0.1061645790947021</v>
+        <v>0.1732840434365834</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -797,474 +794,40 @@
         <v>1.719189</v>
       </c>
       <c r="I6">
-        <v>0.8738620456188184</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9122171124577967</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1263413333333333</v>
+        <v>0.03430933333333333</v>
       </c>
       <c r="N6">
-        <v>0.379024</v>
+        <v>0.102928</v>
       </c>
       <c r="O6">
-        <v>0.00488755955973356</v>
+        <v>0.00121016305344615</v>
       </c>
       <c r="P6">
-        <v>0.005175761414855964</v>
+        <v>0.00132210650893016</v>
       </c>
       <c r="Q6">
-        <v>0.07240154350399999</v>
+        <v>0.019661409488</v>
       </c>
       <c r="R6">
-        <v>0.6516138915359999</v>
+        <v>0.176952685392</v>
       </c>
       <c r="S6">
-        <v>0.004271052794952579</v>
+        <v>0.00121016305344615</v>
       </c>
       <c r="T6">
-        <v>0.004721418132630387</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.573063</v>
-      </c>
-      <c r="H7">
-        <v>1.719189</v>
-      </c>
-      <c r="I7">
-        <v>0.8738620456188184</v>
-      </c>
-      <c r="J7">
-        <v>0.9122171124577967</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.2531386666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.759416</v>
-      </c>
-      <c r="O7">
-        <v>0.009792759642172055</v>
-      </c>
-      <c r="P7">
-        <v>0.01037020355076263</v>
-      </c>
-      <c r="Q7">
-        <v>0.145064403736</v>
-      </c>
-      <c r="R7">
-        <v>1.305579633624</v>
-      </c>
-      <c r="S7">
-        <v>0.00855752097316188</v>
-      </c>
-      <c r="T7">
-        <v>0.009459877138676281</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>0.082719</v>
-      </c>
-      <c r="H8">
-        <v>0.165438</v>
-      </c>
-      <c r="I8">
-        <v>0.1261379543811816</v>
-      </c>
-      <c r="J8">
-        <v>0.08778288754220331</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.5</v>
-      </c>
-      <c r="M8">
-        <v>0.056827</v>
-      </c>
-      <c r="N8">
-        <v>0.113654</v>
-      </c>
-      <c r="O8">
-        <v>0.002198372771388981</v>
-      </c>
-      <c r="P8">
-        <v>0.001552001951971484</v>
-      </c>
-      <c r="Q8">
-        <v>0.004700672613</v>
-      </c>
-      <c r="R8">
-        <v>0.018802690452</v>
-      </c>
-      <c r="S8">
-        <v>0.0002772982443502949</v>
-      </c>
-      <c r="T8">
-        <v>0.0001362392128151928</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>0.082719</v>
-      </c>
-      <c r="H9">
-        <v>0.165438</v>
-      </c>
-      <c r="I9">
-        <v>0.1261379543811816</v>
-      </c>
-      <c r="J9">
-        <v>0.08778288754220331</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>21.108446</v>
-      </c>
-      <c r="N9">
-        <v>63.325338</v>
-      </c>
-      <c r="O9">
-        <v>0.8165877651949714</v>
-      </c>
-      <c r="P9">
-        <v>0.864739016534869</v>
-      </c>
-      <c r="Q9">
-        <v>1.746069544674</v>
-      </c>
-      <c r="R9">
-        <v>10.476417268044</v>
-      </c>
-      <c r="S9">
-        <v>0.1030027102743943</v>
-      </c>
-      <c r="T9">
-        <v>0.0759092878418359</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.082719</v>
-      </c>
-      <c r="H10">
-        <v>0.165438</v>
-      </c>
-      <c r="I10">
-        <v>0.1261379543811816</v>
-      </c>
-      <c r="J10">
-        <v>0.08778288754220331</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.04350366666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.130511</v>
-      </c>
-      <c r="O10">
-        <v>0.001682954867502814</v>
-      </c>
-      <c r="P10">
-        <v>0.001782192679129202</v>
-      </c>
-      <c r="Q10">
-        <v>0.003598579803</v>
-      </c>
-      <c r="R10">
-        <v>0.021591478818</v>
-      </c>
-      <c r="S10">
-        <v>0.0002122844843026574</v>
-      </c>
-      <c r="T10">
-        <v>0.0001564460195305368</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.082719</v>
-      </c>
-      <c r="H11">
-        <v>0.165438</v>
-      </c>
-      <c r="I11">
-        <v>0.1261379543811816</v>
-      </c>
-      <c r="J11">
-        <v>0.08778288754220331</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>4.2613175</v>
-      </c>
-      <c r="N11">
-        <v>8.522634999999999</v>
-      </c>
-      <c r="O11">
-        <v>0.1648505879642311</v>
-      </c>
-      <c r="P11">
-        <v>0.1163808238684119</v>
-      </c>
-      <c r="Q11">
-        <v>0.3524919222825</v>
-      </c>
-      <c r="R11">
-        <v>1.40996768913</v>
-      </c>
-      <c r="S11">
-        <v>0.02079391594434314</v>
-      </c>
-      <c r="T11">
-        <v>0.01021624477370977</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.082719</v>
-      </c>
-      <c r="H12">
-        <v>0.165438</v>
-      </c>
-      <c r="I12">
-        <v>0.1261379543811816</v>
-      </c>
-      <c r="J12">
-        <v>0.08778288754220331</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.1263413333333333</v>
-      </c>
-      <c r="N12">
-        <v>0.379024</v>
-      </c>
-      <c r="O12">
-        <v>0.00488755955973356</v>
-      </c>
-      <c r="P12">
-        <v>0.005175761414855964</v>
-      </c>
-      <c r="Q12">
-        <v>0.010450828752</v>
-      </c>
-      <c r="R12">
-        <v>0.062704972512</v>
-      </c>
-      <c r="S12">
-        <v>0.0006165067647809795</v>
-      </c>
-      <c r="T12">
-        <v>0.0004543432822255762</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.082719</v>
-      </c>
-      <c r="H13">
-        <v>0.165438</v>
-      </c>
-      <c r="I13">
-        <v>0.1261379543811816</v>
-      </c>
-      <c r="J13">
-        <v>0.08778288754220331</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.2531386666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.759416</v>
-      </c>
-      <c r="O13">
-        <v>0.009792759642172055</v>
-      </c>
-      <c r="P13">
-        <v>0.01037020355076263</v>
-      </c>
-      <c r="Q13">
-        <v>0.020939377368</v>
-      </c>
-      <c r="R13">
-        <v>0.125636264208</v>
-      </c>
-      <c r="S13">
-        <v>0.001235238669010175</v>
-      </c>
-      <c r="T13">
-        <v>0.0009103264120863539</v>
+        <v>0.00132210650893016</v>
       </c>
     </row>
   </sheetData>
